--- a/data/24-WFP-SO-1 Open-End.xlsx
+++ b/data/24-WFP-SO-1 Open-End.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>G6.01.R.o</t>
+          <t>G6.01.R1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>G6.01.R2.0</t>
         </is>
       </c>
     </row>
@@ -470,11 +475,8 @@
           <t>abc</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bodhi</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
